--- a/data exel/PERHITUNGAN AHP OPERATOR.xlsx
+++ b/data exel/PERHITUNGAN AHP OPERATOR.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="144">
   <si>
     <t>Penentuan Bonus Karyawan Berdasarkan Penilaian Kinerja (Operator)</t>
   </si>
@@ -345,9 +345,6 @@
     <t>INISIATIF</t>
   </si>
   <si>
-    <t>Perangkingan Alternatif</t>
-  </si>
-  <si>
     <t>Tahap 3</t>
   </si>
   <si>
@@ -463,6 +460,12 @@
   </si>
   <si>
     <t xml:space="preserve">Nilai </t>
+  </si>
+  <si>
+    <t>Hasil Konsistensi</t>
+  </si>
+  <si>
+    <t>Penilaian Alternatif</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,6 +862,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1467,15 +1471,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>37514</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>237539</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1407795</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1498,8 +1502,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647114" y="891540"/>
-          <a:ext cx="3604846" cy="1905000"/>
+          <a:off x="847139" y="952500"/>
+          <a:ext cx="3599131" cy="1884045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1974,6 +1978,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592455" y="4937760"/>
+          <a:ext cx="1701165" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592455" y="4937760"/>
+          <a:ext cx="1701165" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2181,6 +2299,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607695" y="5128260"/>
+          <a:ext cx="1320165" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607695" y="9418320"/>
+          <a:ext cx="1320165" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2289,16 +2521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2307,7 +2539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="607695" y="5128260"/>
+          <a:off x="615315" y="5120640"/>
           <a:ext cx="1701165" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2386,6 +2618,63 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615315" y="9227820"/>
+          <a:ext cx="1678305" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2595,6 +2884,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607695" y="5128260"/>
+          <a:ext cx="1777365" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2800,6 +3146,63 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592455" y="5029200"/>
+          <a:ext cx="1778212" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3009,6 +3412,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607695" y="5128260"/>
+          <a:ext cx="2066925" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3214,6 +3674,63 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592455" y="4937760"/>
+          <a:ext cx="2486025" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3423,6 +3940,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="607695" y="5128260"/>
+          <a:ext cx="1350645" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3628,6 +4202,63 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592455" y="4937760"/>
+          <a:ext cx="2486025" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3837,6 +4468,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="6515100"/>
+          <a:ext cx="733425" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3873,6 +4561,46 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table1114161822" displayName="Table1114161822" ref="F28:G32" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+  <autoFilter ref="F28:G32"/>
+  <tableColumns count="2">
+    <tableColumn id="2" name="JUMLAH" dataDxfId="91">
+      <calculatedColumnFormula>SUM(E35:L35)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PRIORITAS" dataDxfId="90">
+      <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="C51:D54" totalsRowShown="0">
+  <autoFilter ref="C51:D54"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table481315" displayName="Table481315" ref="B18:F28" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="B18:F28"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="87"/>
+    <tableColumn id="2" name="Sangat Lengkap dan sesuai" dataDxfId="86"/>
+    <tableColumn id="3" name="Lengkap" dataDxfId="85"/>
+    <tableColumn id="4" name="Kurang Lengkap dan tidak sesuai" dataDxfId="84"/>
+    <tableColumn id="5" name="Tidak Mampu" dataDxfId="83"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table111416" displayName="Table111416" ref="G29:H34" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="G29:H34"/>
   <tableColumns count="2">
@@ -3887,7 +4615,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C59:D63" totalsRowShown="0">
+  <autoFilter ref="C59:D63"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table481315172123" displayName="Table481315172123" ref="B18:E27" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="B18:E27"/>
   <tableColumns count="4">
@@ -3900,7 +4639,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table111416182224" displayName="Table111416182224" ref="F28:G32" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="F28:G32"/>
   <tableColumns count="2">
@@ -3915,7 +4654,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="C56:D59" totalsRowShown="0">
+  <autoFilter ref="C56:D59"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table48131517" displayName="Table48131517" ref="B18:F28" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="B18:F28"/>
   <tableColumns count="5">
@@ -3929,7 +4679,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table11141618" displayName="Table11141618" ref="G29:H34" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="G29:H34"/>
   <tableColumns count="2">
@@ -3939,99 +4689,6 @@
     <tableColumn id="3" name="PRIORITAS" dataDxfId="58">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table48131517212327" displayName="Table48131517212327" ref="B18:E27" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="B18:E27"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="55"/>
-    <tableColumn id="2" name="Pemahaman Baik " dataDxfId="54"/>
-    <tableColumn id="3" name="Pemahaman Kurang " dataDxfId="53"/>
-    <tableColumn id="4" name="Tidak Memahami " dataDxfId="52"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table11141618222428" displayName="Table11141618222428" ref="F28:H32" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="F28:H32"/>
-  <tableColumns count="3">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="49">
-      <calculatedColumnFormula>SUM(E35:L35)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="48">
-      <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="EIGEN VALUE" dataDxfId="47"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table4734" displayName="Table4734" ref="B36:M45" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="B36:M45"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Column1" dataDxfId="44"/>
-    <tableColumn id="2" name="Hadir 100%" dataDxfId="43">
-      <calculatedColumnFormula>C20/$C$29</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="Hadir 100% ada terlambat" dataDxfId="42">
-      <calculatedColumnFormula>D20/$D$28</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Hadir &gt; 90 % " dataDxfId="41">
-      <calculatedColumnFormula>E20/$E$28</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="Hadir &gt;90 % ada terlambat" dataDxfId="40">
-      <calculatedColumnFormula>F20/$F$29</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="Hadir 80-90 % " dataDxfId="39">
-      <calculatedColumnFormula>G20/$G$29</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="Hadir 80-90 % ada terlambat" dataDxfId="38">
-      <calculatedColumnFormula>H20/$H$29</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="Hadir &lt; 80 %" dataDxfId="37"/>
-    <tableColumn id="13" name="Hadir &lt; 80 %Aada terlambat" dataDxfId="36"/>
-    <tableColumn id="8" name="JUMLAH" dataDxfId="35"/>
-    <tableColumn id="9" name="PRIORITAS" dataDxfId="34"/>
-    <tableColumn id="10" name="EIGEN VALUE" dataDxfId="33"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table433" displayName="Table433" ref="B19:J35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="B19:J35"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Column1" dataDxfId="30"/>
-    <tableColumn id="2" name="Hadir 100%" dataDxfId="29"/>
-    <tableColumn id="3" name="Hadir 100% ada terlambat" dataDxfId="28"/>
-    <tableColumn id="4" name="Hadir &gt; 90 % " dataDxfId="27"/>
-    <tableColumn id="5" name="Hadir &gt;90 % ada terlambat" dataDxfId="26"/>
-    <tableColumn id="6" name="Hadir 80-90 % " dataDxfId="25"/>
-    <tableColumn id="7" name="Hadir 80-90 % ada terlambat" dataDxfId="24"/>
-    <tableColumn id="8" name="Hadir &lt; 80 %" dataDxfId="23"/>
-    <tableColumn id="9" name="Hadir &lt;80 % ada terlambat" dataDxfId="22"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table481315172123272" displayName="Table481315172123272" ref="B18:E27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="B18:E27"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="19"/>
-    <tableColumn id="2" name="Tidak Ada Pelanggaran" dataDxfId="18"/>
-    <tableColumn id="3" name="Sedikit Pelanggaran " dataDxfId="17"/>
-    <tableColumn id="4" name="Banyak Pelanggaran" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4102,6 +4759,132 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table25" displayName="Table25" ref="C57:D61" totalsRowShown="0">
+  <autoFilter ref="C57:D61"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table48131517212327" displayName="Table48131517212327" ref="B18:E27" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="B18:E27"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="55"/>
+    <tableColumn id="2" name="Pemahaman Baik " dataDxfId="54"/>
+    <tableColumn id="3" name="Pemahaman Kurang " dataDxfId="53"/>
+    <tableColumn id="4" name="Tidak Memahami " dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table11141618222428" displayName="Table11141618222428" ref="F28:H32" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="F28:H32"/>
+  <tableColumns count="3">
+    <tableColumn id="2" name="JUMLAH" dataDxfId="49">
+      <calculatedColumnFormula>SUM(E35:L35)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="PRIORITAS" dataDxfId="48">
+      <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="EIGEN VALUE" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table28" displayName="Table28" ref="C62:D65" totalsRowShown="0">
+  <autoFilter ref="C62:D65"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table4734" displayName="Table4734" ref="B36:M45" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="B36:M45"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Column1" dataDxfId="44"/>
+    <tableColumn id="2" name="Hadir 100%" dataDxfId="43">
+      <calculatedColumnFormula>C20/$C$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Hadir 100% ada terlambat" dataDxfId="42">
+      <calculatedColumnFormula>D20/$D$28</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Hadir &gt; 90 % " dataDxfId="41">
+      <calculatedColumnFormula>E20/$E$28</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Hadir &gt;90 % ada terlambat" dataDxfId="40">
+      <calculatedColumnFormula>F20/$F$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Hadir 80-90 % " dataDxfId="39">
+      <calculatedColumnFormula>G20/$G$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Hadir 80-90 % ada terlambat" dataDxfId="38">
+      <calculatedColumnFormula>H20/$H$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="Hadir &lt; 80 %" dataDxfId="37"/>
+    <tableColumn id="13" name="Hadir &lt; 80 %Aada terlambat" dataDxfId="36"/>
+    <tableColumn id="8" name="JUMLAH" dataDxfId="35"/>
+    <tableColumn id="9" name="PRIORITAS" dataDxfId="34"/>
+    <tableColumn id="10" name="EIGEN VALUE" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table433" displayName="Table433" ref="B19:J35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="B19:J35"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Column1" dataDxfId="30"/>
+    <tableColumn id="2" name="Hadir 100%" dataDxfId="29"/>
+    <tableColumn id="3" name="Hadir 100% ada terlambat" dataDxfId="28"/>
+    <tableColumn id="4" name="Hadir &gt; 90 % " dataDxfId="27"/>
+    <tableColumn id="5" name="Hadir &gt;90 % ada terlambat" dataDxfId="26"/>
+    <tableColumn id="6" name="Hadir 80-90 % " dataDxfId="25"/>
+    <tableColumn id="7" name="Hadir 80-90 % ada terlambat" dataDxfId="24"/>
+    <tableColumn id="8" name="Hadir &lt; 80 %" dataDxfId="23"/>
+    <tableColumn id="9" name="Hadir &lt;80 % ada terlambat" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="C63:D71" totalsRowShown="0">
+  <autoFilter ref="C63:D71"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table481315172123272" displayName="Table481315172123272" ref="B18:E27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="B18:E27"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Column1" dataDxfId="19"/>
+    <tableColumn id="2" name="Tidak Ada Pelanggaran" dataDxfId="18"/>
+    <tableColumn id="3" name="Sedikit Pelanggaran " dataDxfId="17"/>
+    <tableColumn id="4" name="Banyak Pelanggaran" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table111416182224283" displayName="Table111416182224283" ref="F28:H32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="F28:H32"/>
   <tableColumns count="3">
@@ -4117,7 +4900,32 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table30" displayName="Table30" ref="C58:D61" totalsRowShown="0">
+  <autoFilter ref="C58:D61"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table48" displayName="Table48" ref="B18:F28" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+  <autoFilter ref="B18:F28"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="119"/>
+    <tableColumn id="2" name="Pekerjaan selesai &gt;90%" dataDxfId="118"/>
+    <tableColumn id="3" name="Pekerjaan selsesai 80 - 90 %" dataDxfId="117"/>
+    <tableColumn id="4" name="Pekerjaan selesai 60 - 79%" dataDxfId="116"/>
+    <tableColumn id="5" name="Pekerjaan selesai &lt; 60 %" dataDxfId="115"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table4813151719" displayName="Table4813151719" ref="B18:F28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B18:F28"/>
   <tableColumns count="5">
@@ -4131,7 +4939,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1114161820" displayName="Table1114161820" ref="G29:H34" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="G29:H34"/>
   <tableColumns count="2">
@@ -4146,17 +4954,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table48" displayName="Table48" ref="B18:F28" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
-  <autoFilter ref="B18:F28"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="119"/>
-    <tableColumn id="2" name="Pekerjaan selesai &gt;90%" dataDxfId="118"/>
-    <tableColumn id="3" name="Pekerjaan selsesai 80 - 90 %" dataDxfId="117"/>
-    <tableColumn id="4" name="Pekerjaan selesai 60 - 79%" dataDxfId="116"/>
-    <tableColumn id="5" name="Pekerjaan selesai &lt; 60 %" dataDxfId="115"/>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="C52:D56" totalsRowShown="0">
+  <autoFilter ref="C52:D56"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4176,6 +4981,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C51:D55" totalsRowShown="0">
+  <autoFilter ref="C51:D55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table4813" displayName="Table4813" ref="B18:F28" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="B18:F28"/>
   <tableColumns count="5">
@@ -4189,7 +5005,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1114" displayName="Table1114" ref="G29:H34" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="G29:H34"/>
   <tableColumns count="2">
@@ -4204,7 +5020,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="C66:D70" totalsRowShown="0">
+  <autoFilter ref="C66:D70"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="JUMLAH"/>
+    <tableColumn id="2" name="PRIORITAS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table4813151721" displayName="Table4813151721" ref="B18:E27" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="B18:E27"/>
   <tableColumns count="4">
@@ -4212,35 +5039,6 @@
     <tableColumn id="2" name="Melaksanakan" dataDxfId="96"/>
     <tableColumn id="3" name="Kurang Melaksanakan " dataDxfId="95"/>
     <tableColumn id="4" name="Tidak Melaksanakan" dataDxfId="94"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table1114161822" displayName="Table1114161822" ref="F28:G32" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
-  <autoFilter ref="F28:G32"/>
-  <tableColumns count="2">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="91">
-      <calculatedColumnFormula>SUM(E35:L35)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="90">
-      <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table481315" displayName="Table481315" ref="B18:F28" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="B18:F28"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="87"/>
-    <tableColumn id="2" name="Sangat Lengkap dan sesuai" dataDxfId="86"/>
-    <tableColumn id="3" name="Lengkap" dataDxfId="85"/>
-    <tableColumn id="4" name="Kurang Lengkap dan tidak sesuai" dataDxfId="84"/>
-    <tableColumn id="5" name="Tidak Mampu" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4511,8 +5309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:L29"/>
+    <sheetView tabSelected="1" topLeftCell="K43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4534,26 +5332,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5827,6 +6625,11 @@
         <v>10.967732331655803</v>
       </c>
     </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>19</v>
@@ -5860,10 +6663,10 @@
     <row r="52" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -5893,7 +6696,7 @@
         <v>0.10108032979310826</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F62" s="19">
         <v>0.56122714234880688</v>
@@ -5913,7 +6716,7 @@
         <v>5.4704242112527279E-2</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F63" s="19">
         <v>0.28300101123002108</v>
@@ -5933,7 +6736,7 @@
         <v>7.014540700823764E-2</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F64" s="19">
         <v>0.10822358139925491</v>
@@ -5953,7 +6756,7 @@
         <v>2.5469698482563558E-2</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F65" s="19">
         <v>4.7548265021917197E-2</v>
@@ -6261,32 +7064,32 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="62" t="s">
+      <c r="A90" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="62" t="s">
+      <c r="C90" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D90" s="59" t="s">
+      <c r="D90" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="62"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="62"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
       <c r="D91" s="30" t="s">
         <v>4</v>
       </c>
@@ -6312,7 +7115,7 @@
         <v>71</v>
       </c>
       <c r="L91" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M91" s="37" t="s">
         <v>13</v>
@@ -6326,13 +7129,13 @@
         <v>74</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="48" t="s">
         <v>123</v>
-      </c>
-      <c r="E92" s="48" t="s">
-        <v>124</v>
       </c>
       <c r="F92" s="48" t="s">
         <v>44</v>
@@ -6341,22 +7144,22 @@
         <v>35</v>
       </c>
       <c r="H92" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J92" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K92" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K92" s="48" t="s">
+      <c r="L92" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L92" s="48" t="s">
+      <c r="M92" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M92" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -6367,37 +7170,37 @@
         <v>75</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E93" s="48" t="s">
         <v>31</v>
       </c>
       <c r="F93" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G93" s="48" t="s">
-        <v>132</v>
-      </c>
       <c r="H93" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J93" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K93" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K93" s="48" t="s">
+      <c r="L93" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L93" s="48" t="s">
+      <c r="M93" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M93" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -6405,40 +7208,40 @@
         <v>3</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="F94" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="H94" s="48" t="s">
         <v>124</v>
-      </c>
-      <c r="F94" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G94" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="H94" s="48" t="s">
-        <v>125</v>
       </c>
       <c r="I94" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J94" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K94" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L94" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="M94" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M94" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -6446,40 +7249,40 @@
         <v>4</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E95" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="F95" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="H95" s="48" t="s">
         <v>124</v>
-      </c>
-      <c r="F95" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G95" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="H95" s="48" t="s">
-        <v>125</v>
       </c>
       <c r="I95" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J95" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K95" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K95" s="48" t="s">
+      <c r="L95" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L95" s="48" t="s">
+      <c r="M95" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M95" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -6487,16 +7290,16 @@
         <v>5</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="48" t="s">
         <v>123</v>
-      </c>
-      <c r="E96" s="48" t="s">
-        <v>124</v>
       </c>
       <c r="F96" s="48" t="s">
         <v>44</v>
@@ -6505,22 +7308,22 @@
         <v>35</v>
       </c>
       <c r="H96" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I96" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J96" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K96" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K96" s="48" t="s">
+      <c r="L96" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L96" s="48" t="s">
+      <c r="M96" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M96" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -6528,16 +7331,16 @@
         <v>6</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D97" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="48" t="s">
         <v>123</v>
-      </c>
-      <c r="E97" s="48" t="s">
-        <v>124</v>
       </c>
       <c r="F97" s="48" t="s">
         <v>44</v>
@@ -6546,22 +7349,22 @@
         <v>35</v>
       </c>
       <c r="H97" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I97" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J97" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K97" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K97" s="48" t="s">
+      <c r="L97" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L97" s="48" t="s">
+      <c r="M97" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M97" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -6569,40 +7372,40 @@
         <v>7</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D98" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F98" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="G98" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="H98" s="48" t="s">
         <v>124</v>
-      </c>
-      <c r="F98" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="G98" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="H98" s="48" t="s">
-        <v>125</v>
       </c>
       <c r="I98" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J98" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K98" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K98" s="48" t="s">
+      <c r="L98" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L98" s="48" t="s">
+      <c r="M98" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M98" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -6610,13 +7413,13 @@
         <v>8</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E99" s="48" t="s">
         <v>32</v>
@@ -6628,22 +7431,22 @@
         <v>32</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I99" s="48" t="s">
         <v>32</v>
       </c>
       <c r="J99" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K99" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K99" s="48" t="s">
+      <c r="L99" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L99" s="48" t="s">
+      <c r="M99" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M99" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -6651,13 +7454,13 @@
         <v>9</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E100" s="48" t="s">
         <v>32</v>
@@ -6666,25 +7469,25 @@
         <v>46</v>
       </c>
       <c r="G100" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I100" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J100" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K100" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L100" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="M100" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M100" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -6692,13 +7495,13 @@
         <v>10</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E101" s="48" t="s">
         <v>31</v>
@@ -6710,22 +7513,22 @@
         <v>35</v>
       </c>
       <c r="H101" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I101" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J101" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K101" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L101" s="48" t="s">
         <v>79</v>
       </c>
       <c r="M101" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -6733,40 +7536,40 @@
         <v>11</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D102" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E102" s="48" t="s">
         <v>32</v>
       </c>
       <c r="F102" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G102" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G102" s="48" t="s">
-        <v>132</v>
-      </c>
       <c r="H102" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I102" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J102" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K102" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K102" s="48" t="s">
+      <c r="L102" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L102" s="48" t="s">
+      <c r="M102" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M102" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -6774,37 +7577,37 @@
         <v>12</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D103" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E103" s="48" t="s">
         <v>32</v>
       </c>
       <c r="F103" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="G103" s="48" t="s">
-        <v>132</v>
-      </c>
       <c r="H103" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I103" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J103" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K103" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K103" s="48" t="s">
+      <c r="L103" s="48" t="s">
         <v>127</v>
-      </c>
-      <c r="L103" s="48" t="s">
-        <v>128</v>
       </c>
       <c r="M103" s="49" t="s">
         <v>32</v>
@@ -6815,40 +7618,40 @@
         <v>13</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D104" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E104" s="48" t="s">
-        <v>124</v>
-      </c>
       <c r="F104" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G104" s="48" t="s">
         <v>35</v>
       </c>
       <c r="H104" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I104" s="48" t="s">
         <v>39</v>
       </c>
       <c r="J104" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="K104" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="K104" s="48" t="s">
+      <c r="L104" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="L104" s="48" t="s">
+      <c r="M104" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="M104" s="49" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -6857,7 +7660,7 @@
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B108" s="63" t="s">
+      <c r="B108" s="64" t="s">
         <v>64</v>
       </c>
       <c r="C108" s="45" t="s">
@@ -6872,18 +7675,18 @@
       <c r="J108" s="46"/>
       <c r="K108" s="46"/>
       <c r="L108" s="47"/>
-      <c r="M108" s="65" t="s">
+      <c r="M108" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="N108" s="67" t="s">
-        <v>142</v>
+      <c r="N108" s="68" t="s">
+        <v>141</v>
       </c>
       <c r="O108" s="54" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B109" s="64"/>
+      <c r="B109" s="65"/>
       <c r="C109" s="30" t="s">
         <v>4</v>
       </c>
@@ -6914,8 +7717,8 @@
       <c r="L109" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M109" s="66"/>
-      <c r="N109" s="67"/>
+      <c r="M109" s="67"/>
+      <c r="N109" s="68"/>
       <c r="O109" s="55"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -7040,7 +7843,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="39">
         <f>F63*$C$61</f>
@@ -7100,7 +7903,7 @@
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="39">
         <f>F63*$C$61</f>
@@ -7160,7 +7963,7 @@
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="39">
         <f>F63*$C$61</f>
@@ -7220,7 +8023,7 @@
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="39">
         <f>F63*$C$61</f>
@@ -7280,7 +8083,7 @@
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="39">
         <f>F64*$C$61</f>
@@ -7340,7 +8143,7 @@
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="39">
         <f>F64*$C$61</f>
@@ -7400,7 +8203,7 @@
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="39">
         <f>F64*$C$61</f>
@@ -7460,7 +8263,7 @@
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="39">
         <f>F64*$C$61</f>
@@ -7520,7 +8323,7 @@
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="39">
         <f>F65*$C$61</f>
@@ -7580,7 +8383,7 @@
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="39">
         <f>F64*$C$61</f>
@@ -7640,7 +8443,7 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="39">
         <f>F63*$C$61</f>
@@ -7709,7 +8512,7 @@
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K125" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L125" s="41" t="s">
         <v>83</v>
@@ -7720,7 +8523,7 @@
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K126" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L126" s="41" t="s">
         <v>73</v>
@@ -7731,7 +8534,7 @@
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K127" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L127" s="41" t="s">
         <v>72</v>
@@ -7742,7 +8545,7 @@
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K128" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L128" s="41" t="s">
         <v>76</v>
@@ -7774,10 +8577,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H45"/>
+  <dimension ref="A4:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B31"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7968,7 +8771,7 @@
       </c>
       <c r="H29" s="14">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*C22</f>
-        <v>0.96131100082712984</v>
+        <v>0.97646198830409348</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -7997,7 +8800,7 @@
       </c>
       <c r="H30" s="17">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*D22</f>
-        <v>1.3087327226097769</v>
+        <v>1.1797693920335428</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -8026,7 +8829,7 @@
       </c>
       <c r="H31" s="14">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*E22</f>
-        <v>0.8140830563228616</v>
+        <v>0.92121813968884481</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -8044,7 +8847,7 @@
       </c>
       <c r="H32" s="14">
         <f>SUM(H29:H31)</f>
-        <v>3.0841267797597682</v>
+        <v>3.0774495200264811</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -8057,7 +8860,7 @@
       </c>
       <c r="C34" s="19">
         <f>(H32-3)/(3-1)</f>
-        <v>4.2063389879884117E-2</v>
+        <v>3.8724760013240545E-2</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -8068,7 +8871,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="19">
-        <v>0.9</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
@@ -8079,7 +8882,7 @@
       </c>
       <c r="C36" s="24">
         <f>C34/C35</f>
-        <v>4.6737099866537908E-2</v>
+        <v>6.676682760903542E-2</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>IF(C36&lt;=0.1, "KONSISTEN", "TIDAK KONSISTEN")</f>
@@ -8114,22 +8917,67 @@
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
     </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <v>2.2108573320092684</v>
+      </c>
+      <c r="D59">
+        <v>0.73695244400308946</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60">
+        <v>0.55883813306852037</v>
+      </c>
+      <c r="D60">
+        <v>0.18627937768950678</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61">
+        <v>0.2303045349222112</v>
+      </c>
+      <c r="D61">
+        <v>7.6768178307403734E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I46"/>
+  <dimension ref="A4:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B33"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8560,22 +9408,78 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
     </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>2.231631581783724</v>
+      </c>
+      <c r="D53">
+        <v>0.557907895445931</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>1.1069385475015956</v>
+      </c>
+      <c r="D54">
+        <v>0.2767346368753989</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>0.45002757213995703</v>
+      </c>
+      <c r="D55">
+        <v>0.11250689303498926</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>0.21140229857472342</v>
+      </c>
+      <c r="D56">
+        <v>5.2850574643680856E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K46"/>
+  <dimension ref="A4:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B33"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9061,22 +9965,78 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>2.2449085693952275</v>
+      </c>
+      <c r="D52">
+        <v>0.56122714234880688</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>1.1320040449200843</v>
+      </c>
+      <c r="D53">
+        <v>0.28300101123002108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>0.43289432559701962</v>
+      </c>
+      <c r="D54">
+        <v>0.10822358139925491</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>0.19019306008766879</v>
+      </c>
+      <c r="D55">
+        <v>4.7548265021917197E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I46"/>
+  <dimension ref="A4:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B33"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9507,22 +10467,78 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
     </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <v>2.2315699006875476</v>
+      </c>
+      <c r="D67">
+        <v>0.55789247517188689</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68">
+        <v>1.0533804430863254</v>
+      </c>
+      <c r="D68">
+        <v>0.26334511077158135</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69">
+        <v>0.48749045072574487</v>
+      </c>
+      <c r="D69">
+        <v>0.12187261268143622</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70">
+        <v>0.227559205500382</v>
+      </c>
+      <c r="D70">
+        <v>5.68898013750955E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H45"/>
+  <dimension ref="A4:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B31"/>
+    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9592,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -9605,8 +10621,8 @@
         <v>0.125</v>
       </c>
       <c r="D21" s="4">
-        <f>1/4</f>
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -9623,11 +10639,11 @@
       </c>
       <c r="D22" s="6">
         <f>SUM(D19:D21)</f>
-        <v>6.25</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(E19:E21)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -9698,23 +10714,23 @@
       </c>
       <c r="D29" s="13">
         <f>D19/$D$22</f>
-        <v>0.8</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="E29" s="13">
         <f>E19/$E$22</f>
-        <v>0.61538461538461542</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F29" s="4">
         <f>SUM(C29:E29)</f>
-        <v>2.170101596516691</v>
+        <v>2.2108573320092684</v>
       </c>
       <c r="G29" s="4">
         <f>Table1114161822[[#This Row],[JUMLAH]]/3</f>
-        <v>0.723367198838897</v>
+        <v>0.73695244400308946</v>
       </c>
       <c r="H29" s="14">
         <f>Table1114161822[[#This Row],[PRIORITAS]]*C22</f>
-        <v>0.95846153846153848</v>
+        <v>0.97646198830409348</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -9727,23 +10743,23 @@
       </c>
       <c r="D30" s="13">
         <f>D20/$D$22</f>
-        <v>0.16</v>
+        <v>0.15789473684210528</v>
       </c>
       <c r="E30" s="13">
         <f>E20/$E$22</f>
-        <v>0.30769230769230771</v>
+        <v>0.25</v>
       </c>
       <c r="F30" s="4">
         <f>SUM(C30:E30)</f>
-        <v>0.6186357039187228</v>
+        <v>0.55883813306852037</v>
       </c>
       <c r="G30" s="4">
         <f>Table1114161822[[#This Row],[JUMLAH]]/3</f>
-        <v>0.20621190130624092</v>
+        <v>0.18627937768950678</v>
       </c>
       <c r="H30" s="17">
         <f>Table1114161822[[#This Row],[PRIORITAS]]*D22</f>
-        <v>1.2888243831640058</v>
+        <v>1.1797693920335428</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -9756,23 +10772,23 @@
       </c>
       <c r="D31" s="13">
         <f>D21/$D$22</f>
-        <v>0.04</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E31" s="13">
         <f>E21/$E$22</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ref="F31" si="0">SUM(C31:E31)</f>
-        <v>0.21126269956458638</v>
+        <v>0.2303045349222112</v>
       </c>
       <c r="G31" s="4">
         <f>Table1114161822[[#This Row],[JUMLAH]]/3</f>
-        <v>7.0420899854862121E-2</v>
+        <v>7.6768178307403734E-2</v>
       </c>
       <c r="H31" s="14">
         <f>Table1114161822[[#This Row],[PRIORITAS]]*E22</f>
-        <v>0.91547169811320761</v>
+        <v>0.92121813968884481</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -9790,7 +10806,7 @@
       </c>
       <c r="H32" s="14">
         <f>SUM(H29:H31)</f>
-        <v>3.1627576197387519</v>
+        <v>3.0774495200264811</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -9803,7 +10819,7 @@
       </c>
       <c r="C34" s="19">
         <f>(H32-3)/(3-1)</f>
-        <v>8.1378809869375957E-2</v>
+        <v>3.8724760013240545E-2</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -9814,7 +10830,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="19">
-        <v>0.9</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
@@ -9825,7 +10841,7 @@
       </c>
       <c r="C36" s="24">
         <f>C34/C35</f>
-        <v>9.0420899854862166E-2</v>
+        <v>6.676682760903542E-2</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>IF(C36&lt;=0.1, "KONSISTEN", "TIDAK KONSISTEN")</f>
@@ -9860,22 +10876,67 @@
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
     </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>2.170101596516691</v>
+      </c>
+      <c r="D52">
+        <v>0.723367198838897</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>0.6186357039187228</v>
+      </c>
+      <c r="D53">
+        <v>0.20621190130624092</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <v>0.21126269956458638</v>
+      </c>
+      <c r="D54">
+        <v>7.0420899854862121E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I46"/>
+  <dimension ref="A4:I63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B33"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10306,22 +11367,78 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
     </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60">
+        <v>2.0046952795109347</v>
+      </c>
+      <c r="D60">
+        <v>0.50117381987773368</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>1.2875779920589905</v>
+      </c>
+      <c r="D61">
+        <v>0.32189449801474762</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62">
+        <v>0.50148106132224113</v>
+      </c>
+      <c r="D62">
+        <v>0.12537026533056028</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63">
+        <v>0.20624566710783387</v>
+      </c>
+      <c r="D63">
+        <v>5.1561416776958469E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H45"/>
+  <dimension ref="A4:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10390,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -10403,8 +11520,8 @@
         <v>0.125</v>
       </c>
       <c r="D21" s="4">
-        <f>1/5</f>
-        <v>0.2</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -10421,11 +11538,11 @@
       </c>
       <c r="D22" s="6">
         <f>SUM(D19:D21)</f>
-        <v>6.2</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(E19:E21)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -10496,23 +11613,23 @@
       </c>
       <c r="D29" s="13">
         <f>D19/$D$22</f>
-        <v>0.80645161290322576</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="E29" s="13">
         <f>E19/$E$22</f>
-        <v>0.61538461538461542</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F29" s="4">
         <f>SUM(C29:E29)</f>
-        <v>2.1765532094199167</v>
+        <v>2.2108573320092684</v>
       </c>
       <c r="G29" s="4">
         <f>Table111416182224[[#This Row],[JUMLAH]]/3</f>
-        <v>0.72551773647330553</v>
+        <v>0.73695244400308946</v>
       </c>
       <c r="H29" s="14">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*C22</f>
-        <v>0.96131100082712984</v>
+        <v>0.97646198830409348</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -10525,23 +11642,23 @@
       </c>
       <c r="D30" s="13">
         <f>D20/$D$22</f>
-        <v>0.16129032258064516</v>
+        <v>0.15789473684210528</v>
       </c>
       <c r="E30" s="13">
         <f>E20/$E$22</f>
-        <v>0.30769230769230771</v>
+        <v>0.25</v>
       </c>
       <c r="F30" s="4">
         <f>SUM(C30:E30)</f>
-        <v>0.61992602649936801</v>
+        <v>0.55883813306852037</v>
       </c>
       <c r="G30" s="4">
         <f>Table111416182224[[#This Row],[JUMLAH]]/3</f>
-        <v>0.20664200883312267</v>
+        <v>0.18627937768950678</v>
       </c>
       <c r="H30" s="17">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*D22</f>
-        <v>1.2811804547653607</v>
+        <v>1.1797693920335428</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -10554,23 +11671,23 @@
       </c>
       <c r="D31" s="13">
         <f>D21/$D$22</f>
-        <v>3.2258064516129031E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E31" s="13">
         <f>E21/$E$22</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ref="F31" si="0">SUM(C31:E31)</f>
-        <v>0.2035207640807154</v>
+        <v>0.2303045349222112</v>
       </c>
       <c r="G31" s="4">
         <f>Table111416182224[[#This Row],[JUMLAH]]/3</f>
-        <v>6.78402546935718E-2</v>
+        <v>7.6768178307403734E-2</v>
       </c>
       <c r="H31" s="14">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*E22</f>
-        <v>0.8819233110164334</v>
+        <v>0.92121813968884481</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -10588,7 +11705,7 @@
       </c>
       <c r="H32" s="14">
         <f>SUM(H29:H31)</f>
-        <v>3.1244147666089241</v>
+        <v>3.0774495200264811</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -10601,7 +11718,7 @@
       </c>
       <c r="C34" s="19">
         <f>(H32-3)/(3-1)</f>
-        <v>6.2207383304462072E-2</v>
+        <v>3.8724760013240545E-2</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -10612,7 +11729,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="19">
-        <v>0.9</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
@@ -10623,7 +11740,7 @@
       </c>
       <c r="C36" s="24">
         <f>C34/C35</f>
-        <v>6.9119314782735627E-2</v>
+        <v>6.676682760903542E-2</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>IF(C36&lt;=0.1, "KONSISTEN", "TIDAK KONSISTEN")</f>
@@ -10658,22 +11775,68 @@
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
     </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>2.170101596516691</v>
+      </c>
+      <c r="D57">
+        <v>0.723367198838897</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>0.6186357039187228</v>
+      </c>
+      <c r="D58">
+        <v>0.20621190130624092</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>0.21126269956458638</v>
+      </c>
+      <c r="D59">
+        <v>7.0420899854862121E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I46"/>
+  <dimension ref="A4:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B33"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11104,22 +12267,78 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="G46" s="4"/>
     </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>2.4227736114981488</v>
+      </c>
+      <c r="D58">
+        <v>0.60569340287453721</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>0.927325281432412</v>
+      </c>
+      <c r="D59">
+        <v>0.231831320358103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>0.44159385374721105</v>
+      </c>
+      <c r="D60">
+        <v>0.11039846343680276</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>0.20830725332222783</v>
+      </c>
+      <c r="D61">
+        <v>5.2076813330556956E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H45"/>
+  <dimension ref="A4:H65"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B31"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11171,7 +12390,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -11187,7 +12406,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -11196,12 +12415,12 @@
         <v>52</v>
       </c>
       <c r="C21" s="4">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D21" s="4">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/4</f>
+        <v>0.25</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -11214,15 +12433,15 @@
       </c>
       <c r="C22" s="6">
         <f>SUM(C19:C21)</f>
-        <v>1.3111111111111111</v>
+        <v>1.3428571428571427</v>
       </c>
       <c r="D22" s="6">
         <f>SUM(D19:D21)</f>
-        <v>6.333333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="E22" s="6">
         <f>SUM(E19:E21)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -11289,27 +12508,27 @@
       </c>
       <c r="C29" s="13">
         <f>C19/$C$22</f>
-        <v>0.76271186440677963</v>
+        <v>0.74468085106382986</v>
       </c>
       <c r="D29" s="13">
         <f>D19/$D$22</f>
-        <v>0.78947368421052633</v>
+        <v>0.8</v>
       </c>
       <c r="E29" s="13">
         <f>E19/$E$22</f>
-        <v>0.69230769230769229</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F29" s="4">
         <f>SUM(C29:E29)</f>
-        <v>2.2444932409249985</v>
+        <v>2.1280141843971632</v>
       </c>
       <c r="G29" s="4">
         <f>Table11141618222428[[#This Row],[JUMLAH]]/3</f>
-        <v>0.74816441364166619</v>
+        <v>0.70933806146572109</v>
       </c>
       <c r="H29" s="14">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*C22</f>
-        <v>0.95123436559833396</v>
+        <v>0.98962185337557718</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -11318,27 +12537,27 @@
       </c>
       <c r="C30" s="13">
         <f>C20/$C$22</f>
-        <v>0.15254237288135594</v>
+        <v>0.14893617021276598</v>
       </c>
       <c r="D30" s="13">
         <f>D20/$D$22</f>
-        <v>0.15789473684210528</v>
+        <v>0.16</v>
       </c>
       <c r="E30" s="13">
         <f>E20/$E$22</f>
-        <v>0.23076923076923078</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F30" s="4">
         <f>SUM(C30:E30)</f>
-        <v>0.54120634049269201</v>
+        <v>0.64226950354609924</v>
       </c>
       <c r="G30" s="4">
         <f>Table11141618222428[[#This Row],[JUMLAH]]/3</f>
-        <v>0.18040211349756399</v>
+        <v>0.21408983451536642</v>
       </c>
       <c r="H30" s="17">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*D22</f>
-        <v>1.3087327226097769</v>
+        <v>1.1642461105594173</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -11347,27 +12566,27 @@
       </c>
       <c r="C31" s="13">
         <f>C21/$C$22</f>
-        <v>8.4745762711864403E-2</v>
+        <v>0.10638297872340426</v>
       </c>
       <c r="D31" s="13">
         <f>D21/$D$22</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E31" s="13">
         <f>E21/$E$22</f>
-        <v>7.6923076923076927E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ref="F31" si="0">SUM(C31:E31)</f>
-        <v>0.21430041858230975</v>
+        <v>0.22971631205673759</v>
       </c>
       <c r="G31" s="4">
         <f>Table11141618222428[[#This Row],[JUMLAH]]/3</f>
-        <v>7.1433472860769912E-2</v>
+        <v>7.6572104018912526E-2</v>
       </c>
       <c r="H31" s="14">
         <f>Table111416182224[[#This Row],[PRIORITAS]]*E22</f>
-        <v>0.8819233110164334</v>
+        <v>0.92121813968884481</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -11377,7 +12596,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4">
         <f>SUM(F29:F31)</f>
-        <v>3.0000000000000004</v>
+        <v>3</v>
       </c>
       <c r="G32" s="4">
         <f>SUM(G29:G31)</f>
@@ -11385,7 +12604,7 @@
       </c>
       <c r="H32" s="14">
         <f>SUM(H29:H31)</f>
-        <v>3.1418903992245442</v>
+        <v>3.0750861036238391</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
@@ -11398,7 +12617,7 @@
       </c>
       <c r="C34" s="19">
         <f>(H32-3)/(3-1)</f>
-        <v>7.0945199612272081E-2</v>
+        <v>3.7543051811919526E-2</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -11409,7 +12628,7 @@
         <v>20</v>
       </c>
       <c r="C35" s="19">
-        <v>0.9</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
@@ -11420,7 +12639,7 @@
       </c>
       <c r="C36" s="24">
         <f>C34/C35</f>
-        <v>7.8827999569191204E-2</v>
+        <v>6.4729399675723318E-2</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>IF(C36&lt;=0.1, "KONSISTEN", "TIDAK KONSISTEN")</f>
@@ -11455,22 +12674,67 @@
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G45" s="4"/>
     </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63">
+        <v>2.2444932409249985</v>
+      </c>
+      <c r="D63">
+        <v>0.74816441364166619</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64">
+        <v>0.54120634049269201</v>
+      </c>
+      <c r="D64">
+        <v>0.18040211349756399</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65">
+        <v>0.21430041858230975</v>
+      </c>
+      <c r="D65">
+        <v>7.1433472860769912E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:M51"/>
+  <dimension ref="A5:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11954,7 +13218,7 @@
         <v>56</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>16</v>
@@ -12115,7 +13379,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="8"/>
@@ -12432,12 +13696,112 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>2.6224598954302021</v>
+      </c>
+      <c r="D64">
+        <v>0.32780748692877526</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>1.8793726035156699</v>
+      </c>
+      <c r="D65">
+        <v>0.23492157543945874</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66">
+        <v>1.2475703722101485</v>
+      </c>
+      <c r="D66">
+        <v>0.15594629652626857</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67">
+        <v>0.9493676292341704</v>
+      </c>
+      <c r="D67">
+        <v>0.1186709536542713</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>0.59712163145135244</v>
+      </c>
+      <c r="D68">
+        <v>7.4640203931419055E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <v>0.33090796684655188</v>
+      </c>
+      <c r="D69">
+        <v>4.1363495855818985E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>0.22169321980370793</v>
+      </c>
+      <c r="D70">
+        <v>2.7711652475463491E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71">
+        <v>0.15150668150819718</v>
+      </c>
+      <c r="D71">
+        <v>1.8938335188524648E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data exel/PERHITUNGAN AHP OPERATOR.xlsx
+++ b/data exel/PERHITUNGAN AHP OPERATOR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Documents\@folder dinda\@SKRIPSI (1)\spk penilaian kinerja karyawan (1)\perhitungan dan data skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\spk_ahp\data exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C8F978-3882-4241-BA9F-2D305728BCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936"/>
+    <workbookView xWindow="3915" yWindow="1410" windowWidth="21600" windowHeight="13395" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NILAI KRITERIA" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,18 @@
     <sheet name="KEDISIPILINAN" sheetId="10" r:id="rId10"/>
     <sheet name="INISIATIF" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -471,7 +480,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,10 +909,10 @@
   <cellStyles count="6">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="151">
     <dxf>
@@ -1483,7 +1492,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1527,7 +1542,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1584,7 +1605,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1641,7 +1668,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1690,7 +1723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1747,7 +1786,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1791,7 +1836,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1835,7 +1886,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1892,7 +1949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1949,7 +2012,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1993,7 +2062,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2050,7 +2125,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2112,7 +2193,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2156,7 +2243,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2213,7 +2306,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2270,7 +2369,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2314,7 +2419,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2371,7 +2482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2433,7 +2550,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2477,7 +2600,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2534,7 +2663,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2591,7 +2726,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2635,7 +2776,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2697,7 +2844,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2741,7 +2894,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2798,7 +2957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2855,7 +3020,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2899,7 +3070,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2961,7 +3138,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3005,7 +3188,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3062,7 +3251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3119,7 +3314,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3163,7 +3364,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3225,7 +3432,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3269,7 +3482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3326,7 +3545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3383,7 +3608,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3427,7 +3658,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3489,7 +3726,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3533,7 +3776,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3590,7 +3839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3647,7 +3902,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3691,7 +3952,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3753,7 +4020,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3797,7 +4070,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3854,7 +4133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3911,7 +4196,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3955,7 +4246,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4017,7 +4314,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4061,7 +4364,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4118,7 +4427,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4175,7 +4490,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4219,7 +4540,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4281,7 +4608,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4325,7 +4658,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4382,7 +4721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4439,7 +4784,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4483,7 +4834,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4529,8 +4886,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B18:L34" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
-  <autoFilter ref="B18:L34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="B18:L34" totalsRowShown="0" headerRowDxfId="150" dataDxfId="149">
+  <autoFilter ref="B18:L34" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4544,30 +4901,30 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="Column1" dataDxfId="148"/>
-    <tableColumn id="2" name="Productivity" dataDxfId="147"/>
-    <tableColumn id="3" name="Komunikasi dan Kerjasama" dataDxfId="146"/>
-    <tableColumn id="4" name="Pelaksanaan 5R" dataDxfId="145"/>
-    <tableColumn id="5" name="Dokumentasi" dataDxfId="144"/>
-    <tableColumn id="6" name="Pemahaman dan Pelaksanaan K3" dataDxfId="143"/>
-    <tableColumn id="7" name="Pemahaman SOP" dataDxfId="142"/>
-    <tableColumn id="8" name="Pemahaman Tools" dataDxfId="141"/>
-    <tableColumn id="9" name="Kehadiran" dataDxfId="140"/>
-    <tableColumn id="10" name="Kedisiplinan" dataDxfId="139"/>
-    <tableColumn id="11" name="Inisiatif" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="148"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Productivity" dataDxfId="147"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Komunikasi dan Kerjasama" dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Pelaksanaan 5R" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Dokumentasi" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pemahaman dan Pelaksanaan K3" dataDxfId="143"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pemahaman SOP" dataDxfId="142"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pemahaman Tools" dataDxfId="141"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Kehadiran" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Kedisiplinan" dataDxfId="139"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Inisiatif" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table1114161822" displayName="Table1114161822" ref="F28:G32" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
-  <autoFilter ref="F28:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table1114161822" displayName="Table1114161822" ref="F28:G32" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+  <autoFilter ref="F28:G32" xr:uid="{00000000-0009-0000-0100-000015000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="91">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="JUMLAH" dataDxfId="91">
       <calculatedColumnFormula>SUM(E35:L35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="90">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="PRIORITAS" dataDxfId="90">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4576,38 +4933,38 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="C51:D54" totalsRowShown="0">
-  <autoFilter ref="C51:D54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table9" displayName="Table9" ref="C51:D54" totalsRowShown="0">
+  <autoFilter ref="C51:D54" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table481315" displayName="Table481315" ref="B18:F28" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="B18:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table481315" displayName="Table481315" ref="B18:F28" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+  <autoFilter ref="B18:F28" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="87"/>
-    <tableColumn id="2" name="Sangat Lengkap dan sesuai" dataDxfId="86"/>
-    <tableColumn id="3" name="Lengkap" dataDxfId="85"/>
-    <tableColumn id="4" name="Kurang Lengkap dan tidak sesuai" dataDxfId="84"/>
-    <tableColumn id="5" name="Tidak Mampu" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Column1" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Sangat Lengkap dan sesuai" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Lengkap" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Kurang Lengkap dan tidak sesuai" dataDxfId="84"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Tidak Mampu" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table111416" displayName="Table111416" ref="G29:H34" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
-  <autoFilter ref="G29:H34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table111416" displayName="Table111416" ref="G29:H34" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+  <autoFilter ref="G29:H34" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="80">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="JUMLAH" dataDxfId="80">
       <calculatedColumnFormula>SUM(E36:L36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="79">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="PRIORITAS" dataDxfId="79">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4616,37 +4973,37 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="C59:D63" totalsRowShown="0">
-  <autoFilter ref="C59:D63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table10" displayName="Table10" ref="C59:D63" totalsRowShown="0">
+  <autoFilter ref="C59:D63" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table481315172123" displayName="Table481315172123" ref="B18:E27" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
-  <autoFilter ref="B18:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table481315172123" displayName="Table481315172123" ref="B18:E27" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="B18:E27" xr:uid="{00000000-0009-0000-0100-000016000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="76"/>
-    <tableColumn id="2" name="Paham dan Melaksanakan" dataDxfId="75"/>
-    <tableColumn id="3" name="Kurang Memahami " dataDxfId="74"/>
-    <tableColumn id="4" name="Tidak Memahami dan Melaksanakan" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Column1" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Paham dan Melaksanakan" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Kurang Memahami " dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Tidak Memahami dan Melaksanakan" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table111416182224" displayName="Table111416182224" ref="F28:G32" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
-  <autoFilter ref="F28:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Table111416182224" displayName="Table111416182224" ref="F28:G32" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+  <autoFilter ref="F28:G32" xr:uid="{00000000-0009-0000-0100-000017000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="70">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="JUMLAH" dataDxfId="70">
       <calculatedColumnFormula>SUM(E35:L35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="69">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="PRIORITAS" dataDxfId="69">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4655,38 +5012,38 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table24" displayName="Table24" ref="C56:D59" totalsRowShown="0">
-  <autoFilter ref="C56:D59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Table24" displayName="Table24" ref="C56:D59" totalsRowShown="0">
+  <autoFilter ref="C56:D59" xr:uid="{00000000-0009-0000-0100-000018000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table48131517" displayName="Table48131517" ref="B18:F28" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="B18:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Table48131517" displayName="Table48131517" ref="B18:F28" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="B18:F28" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="66"/>
-    <tableColumn id="2" name="Sangat Mampu" dataDxfId="65"/>
-    <tableColumn id="3" name="Mampu" dataDxfId="64"/>
-    <tableColumn id="4" name="Kurang Mampu" dataDxfId="63"/>
-    <tableColumn id="5" name="Tidak Mampu" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Column1" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Sangat Mampu" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Mampu" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Kurang Mampu" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Tidak Mampu" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table11141618" displayName="Table11141618" ref="G29:H34" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="G29:H34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Table11141618" displayName="Table11141618" ref="G29:H34" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="G29:H34" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="JUMLAH" dataDxfId="59">
       <calculatedColumnFormula>SUM(E36:L36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="58">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="PRIORITAS" dataDxfId="58">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4695,8 +5052,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="B35:O46" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
-  <autoFilter ref="B35:O46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table47" displayName="Table47" ref="B35:O46" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="B35:O46" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4713,44 +5070,44 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" name="Column1" dataDxfId="135"/>
-    <tableColumn id="2" name="Productivity" dataDxfId="134">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Productivity" dataDxfId="134">
       <calculatedColumnFormula>C19/$C$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Komunikasi dan Kerjasama" dataDxfId="133">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Komunikasi dan Kerjasama" dataDxfId="133">
       <calculatedColumnFormula>D19/$D$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Pelaksanaan 5R" dataDxfId="132">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Pelaksanaan 5R" dataDxfId="132">
       <calculatedColumnFormula>E19/$E$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Dokumentasi" dataDxfId="131">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dokumentasi" dataDxfId="131">
       <calculatedColumnFormula>F19/$F$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Pemahaman dan Pelaksanaan K3" dataDxfId="130">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pemahaman dan Pelaksanaan K3" dataDxfId="130">
       <calculatedColumnFormula>G19/$G$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Pemahaman SOP" dataDxfId="129">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Pemahaman SOP" dataDxfId="129">
       <calculatedColumnFormula>H19/$H$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Pemahaman Tools" dataDxfId="128">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Pemahaman Tools" dataDxfId="128">
       <calculatedColumnFormula>I19/$I$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Kehadiran" dataDxfId="127">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Kehadiran" dataDxfId="127">
       <calculatedColumnFormula>J19/$J$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Kedisiplinan" dataDxfId="126">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Kedisiplinan" dataDxfId="126">
       <calculatedColumnFormula>K19/$K$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Inisiatif" dataDxfId="125">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Inisiatif" dataDxfId="125">
       <calculatedColumnFormula>L19/$L$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="JUMLAH" dataDxfId="124">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="JUMLAH" dataDxfId="124">
       <calculatedColumnFormula>SUM(C36:L36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="PRIORITAS" dataDxfId="123">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="PRIORITAS" dataDxfId="123">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="EIGEN VALUE" dataDxfId="122">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="EIGEN VALUE" dataDxfId="122">
       <calculatedColumnFormula>$N36*D28</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4759,194 +5116,194 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table25" displayName="Table25" ref="C57:D61" totalsRowShown="0">
-  <autoFilter ref="C57:D61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Table25" displayName="Table25" ref="C57:D61" totalsRowShown="0">
+  <autoFilter ref="C57:D61" xr:uid="{00000000-0009-0000-0100-000019000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table48131517212327" displayName="Table48131517212327" ref="B18:E27" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="B18:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Table48131517212327" displayName="Table48131517212327" ref="B18:E27" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="B18:E27" xr:uid="{00000000-0009-0000-0100-00001A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="55"/>
-    <tableColumn id="2" name="Pemahaman Baik " dataDxfId="54"/>
-    <tableColumn id="3" name="Pemahaman Kurang " dataDxfId="53"/>
-    <tableColumn id="4" name="Tidak Memahami " dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Column1" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Pemahaman Baik " dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Pemahaman Kurang " dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Tidak Memahami " dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table11141618222428" displayName="Table11141618222428" ref="F28:H32" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="F28:H32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Table11141618222428" displayName="Table11141618222428" ref="F28:H32" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="F28:H32" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="49">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="JUMLAH" dataDxfId="49">
       <calculatedColumnFormula>SUM(E35:L35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="PRIORITAS" dataDxfId="48">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="EIGEN VALUE" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="EIGEN VALUE" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table28" displayName="Table28" ref="C62:D65" totalsRowShown="0">
-  <autoFilter ref="C62:D65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Table28" displayName="Table28" ref="C62:D65" totalsRowShown="0">
+  <autoFilter ref="C62:D65" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table4734" displayName="Table4734" ref="B36:M45" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
-  <autoFilter ref="B36:M45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Table4734" displayName="Table4734" ref="B36:M45" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="B36:M45" xr:uid="{00000000-0009-0000-0100-000021000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Column1" dataDxfId="44"/>
-    <tableColumn id="2" name="Hadir 100%" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Column1" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Hadir 100%" dataDxfId="43">
       <calculatedColumnFormula>C20/$C$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Hadir 100% ada terlambat" dataDxfId="42">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Hadir 100% ada terlambat" dataDxfId="42">
       <calculatedColumnFormula>D20/$D$28</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Hadir &gt; 90 % " dataDxfId="41">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Hadir &gt; 90 % " dataDxfId="41">
       <calculatedColumnFormula>E20/$E$28</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Hadir &gt;90 % ada terlambat" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="Hadir &gt;90 % ada terlambat" dataDxfId="40">
       <calculatedColumnFormula>F20/$F$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Hadir 80-90 % " dataDxfId="39">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Hadir 80-90 % " dataDxfId="39">
       <calculatedColumnFormula>G20/$G$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Hadir 80-90 % ada terlambat" dataDxfId="38">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="Hadir 80-90 % ada terlambat" dataDxfId="38">
       <calculatedColumnFormula>H20/$H$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Hadir &lt; 80 %" dataDxfId="37"/>
-    <tableColumn id="13" name="Hadir &lt; 80 %Aada terlambat" dataDxfId="36"/>
-    <tableColumn id="8" name="JUMLAH" dataDxfId="35"/>
-    <tableColumn id="9" name="PRIORITAS" dataDxfId="34"/>
-    <tableColumn id="10" name="EIGEN VALUE" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-1700-00000C000000}" name="Hadir &lt; 80 %" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-1700-00000D000000}" name="Hadir &lt; 80 %Aada terlambat" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1700-000008000000}" name="JUMLAH" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1700-000009000000}" name="PRIORITAS" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-1700-00000A000000}" name="EIGEN VALUE" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table433" displayName="Table433" ref="B19:J35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="B19:J35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Table433" displayName="Table433" ref="B19:J35" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="B19:J35" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Column1" dataDxfId="30"/>
-    <tableColumn id="2" name="Hadir 100%" dataDxfId="29"/>
-    <tableColumn id="3" name="Hadir 100% ada terlambat" dataDxfId="28"/>
-    <tableColumn id="4" name="Hadir &gt; 90 % " dataDxfId="27"/>
-    <tableColumn id="5" name="Hadir &gt;90 % ada terlambat" dataDxfId="26"/>
-    <tableColumn id="6" name="Hadir 80-90 % " dataDxfId="25"/>
-    <tableColumn id="7" name="Hadir 80-90 % ada terlambat" dataDxfId="24"/>
-    <tableColumn id="8" name="Hadir &lt; 80 %" dataDxfId="23"/>
-    <tableColumn id="9" name="Hadir &lt;80 % ada terlambat" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Column1" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Hadir 100%" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Hadir 100% ada terlambat" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Hadir &gt; 90 % " dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Hadir &gt;90 % ada terlambat" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Hadir 80-90 % " dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Hadir 80-90 % ada terlambat" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-1800-000008000000}" name="Hadir &lt; 80 %" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-1800-000009000000}" name="Hadir &lt;80 % ada terlambat" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="C63:D71" totalsRowShown="0">
-  <autoFilter ref="C63:D71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Table29" displayName="Table29" ref="C63:D71" totalsRowShown="0">
+  <autoFilter ref="C63:D71" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table481315172123272" displayName="Table481315172123272" ref="B18:E27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="B18:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Table481315172123272" displayName="Table481315172123272" ref="B18:E27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="B18:E27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="19"/>
-    <tableColumn id="2" name="Tidak Ada Pelanggaran" dataDxfId="18"/>
-    <tableColumn id="3" name="Sedikit Pelanggaran " dataDxfId="17"/>
-    <tableColumn id="4" name="Banyak Pelanggaran" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Column1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="Tidak Ada Pelanggaran" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Sedikit Pelanggaran " dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Banyak Pelanggaran" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table111416182224283" displayName="Table111416182224283" ref="F28:H32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="F28:H32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Table111416182224283" displayName="Table111416182224283" ref="F28:H32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="F28:H32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="JUMLAH" dataDxfId="13">
       <calculatedColumnFormula>SUM(E35:L35)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="PRIORITAS" dataDxfId="12">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="EIGEN VALUE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="EIGEN VALUE" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table30" displayName="Table30" ref="C58:D61" totalsRowShown="0">
-  <autoFilter ref="C58:D61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Table30" displayName="Table30" ref="C58:D61" totalsRowShown="0">
+  <autoFilter ref="C58:D61" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table48" displayName="Table48" ref="B18:F28" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
-  <autoFilter ref="B18:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table48" displayName="Table48" ref="B18:F28" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+  <autoFilter ref="B18:F28" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="119"/>
-    <tableColumn id="2" name="Pekerjaan selesai &gt;90%" dataDxfId="118"/>
-    <tableColumn id="3" name="Pekerjaan selsesai 80 - 90 %" dataDxfId="117"/>
-    <tableColumn id="4" name="Pekerjaan selesai 60 - 79%" dataDxfId="116"/>
-    <tableColumn id="5" name="Pekerjaan selesai &lt; 60 %" dataDxfId="115"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Pekerjaan selesai &gt;90%" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Pekerjaan selsesai 80 - 90 %" dataDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Pekerjaan selesai 60 - 79%" dataDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Pekerjaan selesai &lt; 60 %" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table4813151719" displayName="Table4813151719" ref="B18:F28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B18:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Table4813151719" displayName="Table4813151719" ref="B18:F28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B18:F28" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="8"/>
-    <tableColumn id="2" name="Sangat Bagus" dataDxfId="7"/>
-    <tableColumn id="3" name="Bagus " dataDxfId="6"/>
-    <tableColumn id="4" name="Kurang Bagus" dataDxfId="5"/>
-    <tableColumn id="5" name="Tidak Mampu" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Sangat Bagus" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Bagus " dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Kurang Bagus" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="Tidak Mampu" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1114161820" displayName="Table1114161820" ref="G29:H34" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="G29:H34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Table1114161820" displayName="Table1114161820" ref="G29:H34" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="G29:H34" xr:uid="{00000000-0009-0000-0100-000013000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="JUMLAH" dataDxfId="1">
       <calculatedColumnFormula>SUM(E36:L36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="PRIORITAS" dataDxfId="0">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4955,24 +5312,24 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="C52:D56" totalsRowShown="0">
-  <autoFilter ref="C52:D56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Table31" displayName="Table31" ref="C52:D56" totalsRowShown="0">
+  <autoFilter ref="C52:D56" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="G29:H34" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
-  <autoFilter ref="G29:H34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table11" displayName="Table11" ref="G29:H34" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+  <autoFilter ref="G29:H34" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="112">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="JUMLAH" dataDxfId="112">
       <calculatedColumnFormula>SUM(E36:L36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="111">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="PRIORITAS" dataDxfId="111">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4981,38 +5338,38 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="C51:D55" totalsRowShown="0">
-  <autoFilter ref="C51:D55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="C51:D55" totalsRowShown="0">
+  <autoFilter ref="C51:D55" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table4813" displayName="Table4813" ref="B18:F28" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
-  <autoFilter ref="B18:F28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table4813" displayName="Table4813" ref="B18:F28" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+  <autoFilter ref="B18:F28" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="108"/>
-    <tableColumn id="2" name="Sangat Baik" dataDxfId="107"/>
-    <tableColumn id="3" name="Baik " dataDxfId="106"/>
-    <tableColumn id="4" name="Kurang" dataDxfId="105"/>
-    <tableColumn id="5" name="Tidak Mampu" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Column1" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Sangat Baik" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Baik " dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Kurang" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Tidak Mampu" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1114" displayName="Table1114" ref="G29:H34" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
-  <autoFilter ref="G29:H34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1114" displayName="Table1114" ref="G29:H34" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+  <autoFilter ref="G29:H34" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="JUMLAH" dataDxfId="101">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="JUMLAH" dataDxfId="101">
       <calculatedColumnFormula>SUM(E36:L36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="PRIORITAS" dataDxfId="100">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="PRIORITAS" dataDxfId="100">
       <calculatedColumnFormula>Table47[[#This Row],[JUMLAH]]/10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5021,24 +5378,24 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="C66:D70" totalsRowShown="0">
-  <autoFilter ref="C66:D70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table8" displayName="Table8" ref="C66:D70" totalsRowShown="0">
+  <autoFilter ref="C66:D70" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="JUMLAH"/>
-    <tableColumn id="2" name="PRIORITAS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="JUMLAH"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="PRIORITAS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table4813151721" displayName="Table4813151721" ref="B18:E27" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
-  <autoFilter ref="B18:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table4813151721" displayName="Table4813151721" ref="B18:E27" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+  <autoFilter ref="B18:E27" xr:uid="{00000000-0009-0000-0100-000014000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="97"/>
-    <tableColumn id="2" name="Melaksanakan" dataDxfId="96"/>
-    <tableColumn id="3" name="Kurang Melaksanakan " dataDxfId="95"/>
-    <tableColumn id="4" name="Tidak Melaksanakan" dataDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Column1" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Melaksanakan" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Kurang Melaksanakan " dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tidak Melaksanakan" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5306,32 +5663,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="K43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" customWidth="1"/>
-    <col min="11" max="11" width="54.109375" customWidth="1"/>
-    <col min="12" max="12" width="39.33203125" customWidth="1"/>
-    <col min="13" max="13" width="37.21875" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" customWidth="1"/>
-    <col min="15" max="15" width="36.5546875" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="54.140625" customWidth="1"/>
+    <col min="12" max="12" width="39.28515625" customWidth="1"/>
+    <col min="13" max="13" width="37.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
@@ -5353,7 +5710,7 @@
       <c r="Q2" s="59"/>
       <c r="R2" s="59"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -5361,12 +5718,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -5404,7 +5761,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
@@ -5443,7 +5800,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
@@ -5484,7 +5841,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
@@ -5529,7 +5886,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
@@ -5573,7 +5930,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -5621,7 +5978,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -5667,7 +6024,7 @@
       <c r="O24" s="4"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
@@ -5714,7 +6071,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
@@ -5754,7 +6111,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
@@ -5796,7 +6153,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
@@ -5839,7 +6196,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>14</v>
       </c>
@@ -5888,19 +6245,19 @@
       <c r="O29" s="6"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
@@ -5922,7 +6279,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -5939,7 +6296,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>22</v>
       </c>
@@ -5954,7 +6311,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>15</v>
       </c>
@@ -5998,7 +6355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
@@ -6055,7 +6412,7 @@
         <v>0.87316940684380284</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
@@ -6112,7 +6469,7 @@
         <v>1.1118836277241908</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
@@ -6169,7 +6526,7 @@
         <v>1.1032022159359669</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
@@ -6226,7 +6583,7 @@
         <v>1.2859991284843568</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
@@ -6283,7 +6640,7 @@
         <v>0.84050004992459737</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
@@ -6340,7 +6697,7 @@
         <v>1.0509571352650433</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
@@ -6397,7 +6754,7 @@
         <v>0.94939054503593256</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
@@ -6454,7 +6811,7 @@
         <v>1.1410142962079051</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -6511,7 +6868,7 @@
         <v>1.279189236522396</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>13</v>
       </c>
@@ -6568,7 +6925,7 @@
         <v>1.3324266897116135</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>14</v>
       </c>
@@ -6625,12 +6982,12 @@
         <v>10.967732331655803</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>19</v>
       </c>
@@ -6639,7 +6996,7 @@
         <v>0.10752581462842256</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>20</v>
       </c>
@@ -6647,7 +7004,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="18" t="s">
         <v>21</v>
       </c>
@@ -6660,8 +7017,8 @@
         <v>KONSISTEN</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>103</v>
       </c>
@@ -6669,12 +7026,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
         <v>4</v>
       </c>
@@ -6688,7 +7045,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="32" t="s">
         <v>5</v>
       </c>
@@ -6708,7 +7065,7 @@
         <v>0.55789247517188689</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="31" t="s">
         <v>6</v>
       </c>
@@ -6728,7 +7085,7 @@
         <v>0.26334511077158135</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="32" t="s">
         <v>7</v>
       </c>
@@ -6748,7 +7105,7 @@
         <v>0.12187261268143622</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="31" t="s">
         <v>8</v>
       </c>
@@ -6768,7 +7125,7 @@
         <v>5.68898013750955E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="32" t="s">
         <v>9</v>
       </c>
@@ -6778,7 +7135,7 @@
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
         <v>10</v>
       </c>
@@ -6786,7 +7143,7 @@
         <v>2.9212016770336385E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="32" t="s">
         <v>11</v>
       </c>
@@ -6800,7 +7157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="31" t="s">
         <v>12</v>
       </c>
@@ -6820,7 +7177,7 @@
         <v>0.50117381987773368</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="32" t="s">
         <v>13</v>
       </c>
@@ -6840,7 +7197,7 @@
         <v>0.32189449801474762</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="E71" s="35" t="s">
         <v>46</v>
       </c>
@@ -6854,7 +7211,7 @@
         <v>0.12537026533056028</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H72" s="19" t="s">
         <v>32</v>
       </c>
@@ -6862,7 +7219,7 @@
         <v>5.1561416776958469E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>97</v>
       </c>
@@ -6870,7 +7227,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="19" t="s">
         <v>47</v>
       </c>
@@ -6887,7 +7244,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="19" t="s">
         <v>48</v>
       </c>
@@ -6907,7 +7264,7 @@
         <v>0.74816441364166619</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="19" t="s">
         <v>49</v>
       </c>
@@ -6927,7 +7284,7 @@
         <v>0.18040211349756399</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E77" s="19" t="s">
         <v>32</v>
       </c>
@@ -6941,12 +7298,12 @@
         <v>7.1433472860769912E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="19" t="s">
         <v>54</v>
       </c>
@@ -6960,7 +7317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="19" t="s">
         <v>55</v>
       </c>
@@ -6980,7 +7337,7 @@
         <v>0.557907895445931</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="19" t="s">
         <v>62</v>
       </c>
@@ -7000,7 +7357,7 @@
         <v>0.2767346368753989</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B82" s="19" t="s">
         <v>63</v>
       </c>
@@ -7020,7 +7377,7 @@
         <v>0.11250689303498926</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B83" s="19" t="s">
         <v>58</v>
       </c>
@@ -7034,7 +7391,7 @@
         <v>5.2850574643680856E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B84" s="19" t="s">
         <v>61</v>
       </c>
@@ -7042,7 +7399,7 @@
         <v>4.1363495855818985E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B85" s="19" t="s">
         <v>56</v>
       </c>
@@ -7050,7 +7407,7 @@
         <v>2.7711652475463491E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B86" s="19" t="s">
         <v>57</v>
       </c>
@@ -7058,12 +7415,12 @@
         <v>1.8938335188524648E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="63" t="s">
         <v>120</v>
       </c>
@@ -7086,7 +7443,7 @@
       <c r="L90" s="61"/>
       <c r="M90" s="62"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="63"/>
       <c r="B91" s="63"/>
       <c r="C91" s="63"/>
@@ -7121,7 +7478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="30">
         <v>1</v>
       </c>
@@ -7162,7 +7519,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="30">
         <v>2</v>
       </c>
@@ -7203,7 +7560,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="30">
         <v>3</v>
       </c>
@@ -7244,7 +7601,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="30">
         <v>4</v>
       </c>
@@ -7285,7 +7642,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="30">
         <v>5</v>
       </c>
@@ -7326,7 +7683,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="30">
         <v>6</v>
       </c>
@@ -7367,7 +7724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="30">
         <v>7</v>
       </c>
@@ -7408,7 +7765,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="30">
         <v>8</v>
       </c>
@@ -7449,7 +7806,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="30">
         <v>9</v>
       </c>
@@ -7490,7 +7847,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="30">
         <v>10</v>
       </c>
@@ -7531,7 +7888,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="30">
         <v>11</v>
       </c>
@@ -7572,7 +7929,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="30">
         <v>12</v>
       </c>
@@ -7613,7 +7970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="30">
         <v>13</v>
       </c>
@@ -7654,12 +8011,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B108" s="64" t="s">
         <v>64</v>
       </c>
@@ -7685,7 +8042,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B109" s="65"/>
       <c r="C109" s="30" t="s">
         <v>4</v>
@@ -7721,7 +8078,7 @@
       <c r="N109" s="68"/>
       <c r="O109" s="55"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B110" s="50" t="s">
         <v>74</v>
       </c>
@@ -7781,7 +8138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="50" t="s">
         <v>75</v>
       </c>
@@ -7841,7 +8198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="50" t="s">
         <v>109</v>
       </c>
@@ -7901,7 +8258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="50" t="s">
         <v>110</v>
       </c>
@@ -7961,7 +8318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="50" t="s">
         <v>111</v>
       </c>
@@ -8021,7 +8378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="50" t="s">
         <v>112</v>
       </c>
@@ -8081,7 +8438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="50" t="s">
         <v>113</v>
       </c>
@@ -8141,7 +8498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="50" t="s">
         <v>114</v>
       </c>
@@ -8201,7 +8558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="50" t="s">
         <v>115</v>
       </c>
@@ -8261,7 +8618,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="50" t="s">
         <v>116</v>
       </c>
@@ -8321,7 +8678,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="50" t="s">
         <v>117</v>
       </c>
@@ -8381,7 +8738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="50" t="s">
         <v>118</v>
       </c>
@@ -8441,7 +8798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="50" t="s">
         <v>119</v>
       </c>
@@ -8501,7 +8858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K124" s="44" t="s">
         <v>82</v>
       </c>
@@ -8510,7 +8867,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K125" s="38" t="s">
         <v>105</v>
       </c>
@@ -8521,7 +8878,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K126" s="38" t="s">
         <v>106</v>
       </c>
@@ -8532,7 +8889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K127" s="38" t="s">
         <v>135</v>
       </c>
@@ -8543,7 +8900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K128" s="38" t="s">
         <v>136</v>
       </c>
@@ -8576,25 +8933,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A4:H61"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -8602,12 +8959,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -8622,7 +8979,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>77</v>
       </c>
@@ -8637,7 +8994,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>78</v>
       </c>
@@ -8653,7 +9010,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>79</v>
       </c>
@@ -8670,7 +9027,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
@@ -8688,13 +9045,13 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -8703,7 +9060,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -8713,7 +9070,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -8722,7 +9079,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
@@ -8745,7 +9102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>77</v>
       </c>
@@ -8774,7 +9131,7 @@
         <v>0.97646198830409348</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>78</v>
       </c>
@@ -8803,7 +9160,7 @@
         <v>1.1797693920335428</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>79</v>
       </c>
@@ -8832,7 +9189,7 @@
         <v>0.92121813968884481</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -8850,11 +9207,11 @@
         <v>3.0774495200264811</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>19</v>
       </c>
@@ -8866,7 +9223,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>20</v>
       </c>
@@ -8876,7 +9233,7 @@
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="23" t="s">
         <v>21</v>
       </c>
@@ -8891,33 +9248,33 @@
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>15</v>
       </c>
@@ -8928,7 +9285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>77</v>
       </c>
@@ -8939,7 +9296,7 @@
         <v>0.73695244400308946</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
         <v>78</v>
       </c>
@@ -8950,7 +9307,7 @@
         <v>0.18627937768950678</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>79</v>
       </c>
@@ -8973,26 +9330,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A4:I56"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -9000,12 +9357,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -9023,7 +9380,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
@@ -9041,7 +9398,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
@@ -9060,7 +9417,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
@@ -9080,7 +9437,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
@@ -9101,7 +9458,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -9123,13 +9480,13 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -9142,7 +9499,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -9150,7 +9507,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
@@ -9160,7 +9517,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
@@ -9186,7 +9543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>41</v>
       </c>
@@ -9219,7 +9576,7 @@
         <v>0.92519725994783553</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>42</v>
       </c>
@@ -9252,7 +9609,7 @@
         <v>1.2314691340955251</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>43</v>
       </c>
@@ -9285,7 +9642,7 @@
         <v>1.1625712280282223</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>32</v>
       </c>
@@ -9318,7 +9675,7 @@
         <v>0.89845976894257451</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -9337,12 +9694,12 @@
         <v>4.2176973910141573</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>19</v>
       </c>
@@ -9354,7 +9711,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
@@ -9365,7 +9722,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="23" t="s">
         <v>21</v>
       </c>
@@ -9381,34 +9738,34 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>15</v>
       </c>
@@ -9419,7 +9776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>41</v>
       </c>
@@ -9430,7 +9787,7 @@
         <v>0.557907895445931</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
         <v>42</v>
       </c>
@@ -9441,7 +9798,7 @@
         <v>0.2767346368753989</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>43</v>
       </c>
@@ -9452,7 +9809,7 @@
         <v>0.11250689303498926</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
         <v>32</v>
       </c>
@@ -9475,29 +9832,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:K55"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D57" sqref="D57:E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -9505,12 +9862,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -9529,7 +9886,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -9548,7 +9905,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
@@ -9568,7 +9925,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
@@ -9589,7 +9946,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -9611,7 +9968,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -9634,15 +9991,15 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -9656,7 +10013,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -9665,7 +10022,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
@@ -9676,7 +10033,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
@@ -9702,7 +10059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>25</v>
       </c>
@@ -9735,7 +10092,7 @@
         <v>0.92290685630692681</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>26</v>
       </c>
@@ -9768,7 +10125,7 @@
         <v>1.2499211329325932</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>27</v>
       </c>
@@ -9801,7 +10158,7 @@
         <v>1.1183103411256341</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>28</v>
       </c>
@@ -9834,7 +10191,7 @@
         <v>0.90341703541642671</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -9853,7 +10210,7 @@
         <v>4.1945553657815804</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -9862,7 +10219,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>19</v>
       </c>
@@ -9878,7 +10235,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
@@ -9893,7 +10250,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="2:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="23" t="s">
         <v>21</v>
       </c>
@@ -9913,7 +10270,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -9922,50 +10279,50 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>15</v>
       </c>
@@ -9976,7 +10333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>25</v>
       </c>
@@ -9987,7 +10344,7 @@
         <v>0.56122714234880688</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
         <v>26</v>
       </c>
@@ -9998,7 +10355,7 @@
         <v>0.28300101123002108</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>27</v>
       </c>
@@ -10009,7 +10366,7 @@
         <v>0.10822358139925491</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
         <v>28</v>
       </c>
@@ -10032,26 +10389,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:I70"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -10059,12 +10416,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -10082,7 +10439,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
@@ -10100,7 +10457,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
@@ -10119,7 +10476,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
@@ -10139,7 +10496,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
@@ -10160,7 +10517,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -10182,13 +10539,13 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -10201,7 +10558,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -10209,7 +10566,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
@@ -10219,7 +10576,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
@@ -10245,7 +10602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
@@ -10278,7 +10635,7 @@
         <v>0.93513405362144841</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
@@ -10311,7 +10668,7 @@
         <v>1.1938311688311687</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
@@ -10344,7 +10701,7 @@
         <v>1.1374777183600715</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>32</v>
       </c>
@@ -10377,7 +10734,7 @@
         <v>0.910236822001528</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -10396,12 +10753,12 @@
         <v>4.1766797628142172</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>19</v>
       </c>
@@ -10413,7 +10770,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
@@ -10424,7 +10781,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="23" t="s">
         <v>21</v>
       </c>
@@ -10440,34 +10797,34 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>15</v>
       </c>
@@ -10478,7 +10835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>29</v>
       </c>
@@ -10489,7 +10846,7 @@
         <v>0.55789247517188689</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
         <v>30</v>
       </c>
@@ -10500,7 +10857,7 @@
         <v>0.26334511077158135</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>31</v>
       </c>
@@ -10511,7 +10868,7 @@
         <v>0.12187261268143622</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>32</v>
       </c>
@@ -10534,26 +10891,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -10561,12 +10918,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -10581,7 +10938,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -10596,7 +10953,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
@@ -10612,7 +10969,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
@@ -10629,7 +10986,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
@@ -10647,13 +11004,13 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -10662,7 +11019,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -10672,7 +11029,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -10681,7 +11038,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
@@ -10704,7 +11061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>44</v>
       </c>
@@ -10733,7 +11090,7 @@
         <v>0.97646198830409348</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>45</v>
       </c>
@@ -10762,7 +11119,7 @@
         <v>1.1797693920335428</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>46</v>
       </c>
@@ -10791,7 +11148,7 @@
         <v>0.92121813968884481</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -10809,11 +11166,11 @@
         <v>3.0774495200264811</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>19</v>
       </c>
@@ -10825,7 +11182,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>20</v>
       </c>
@@ -10835,7 +11192,7 @@
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="23" t="s">
         <v>21</v>
       </c>
@@ -10850,33 +11207,33 @@
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>15</v>
       </c>
@@ -10887,7 +11244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>44</v>
       </c>
@@ -10898,7 +11255,7 @@
         <v>0.723367198838897</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
         <v>45</v>
       </c>
@@ -10909,7 +11266,7 @@
         <v>0.20621190130624092</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>46</v>
       </c>
@@ -10932,26 +11289,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A4:I63"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -10959,12 +11316,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -10982,7 +11339,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>34</v>
       </c>
@@ -11000,7 +11357,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>35</v>
       </c>
@@ -11019,7 +11376,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
@@ -11039,7 +11396,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
@@ -11060,7 +11417,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -11082,13 +11439,13 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -11101,7 +11458,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -11109,7 +11466,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
@@ -11119,7 +11476,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
@@ -11145,7 +11502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>34</v>
       </c>
@@ -11178,7 +11535,7 @@
         <v>0.92359175377468061</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>35</v>
       </c>
@@ -11211,7 +11568,7 @@
         <v>1.0998062015503876</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>36</v>
       </c>
@@ -11244,7 +11601,7 @@
         <v>1.2850452196382429</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>32</v>
       </c>
@@ -11277,7 +11634,7 @@
         <v>0.92810550198525243</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -11296,12 +11653,12 @@
         <v>4.2365486769485639</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>19</v>
       </c>
@@ -11313,7 +11670,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
@@ -11324,7 +11681,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="23" t="s">
         <v>21</v>
       </c>
@@ -11340,34 +11697,34 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>15</v>
       </c>
@@ -11378,7 +11735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>34</v>
       </c>
@@ -11389,7 +11746,7 @@
         <v>0.50117381987773368</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
         <v>35</v>
       </c>
@@ -11400,7 +11757,7 @@
         <v>0.32189449801474762</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>36</v>
       </c>
@@ -11411,7 +11768,7 @@
         <v>0.12537026533056028</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>32</v>
       </c>
@@ -11434,25 +11791,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A4:H59"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -11460,12 +11817,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -11480,7 +11837,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
@@ -11495,7 +11852,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
@@ -11511,7 +11868,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
@@ -11528,7 +11885,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
@@ -11546,13 +11903,13 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -11561,7 +11918,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -11571,7 +11928,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -11580,7 +11937,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
@@ -11603,7 +11960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>47</v>
       </c>
@@ -11632,7 +11989,7 @@
         <v>0.97646198830409348</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>48</v>
       </c>
@@ -11661,7 +12018,7 @@
         <v>1.1797693920335428</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>49</v>
       </c>
@@ -11690,7 +12047,7 @@
         <v>0.92121813968884481</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -11708,11 +12065,11 @@
         <v>3.0774495200264811</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>19</v>
       </c>
@@ -11724,7 +12081,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>20</v>
       </c>
@@ -11734,7 +12091,7 @@
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="23" t="s">
         <v>21</v>
       </c>
@@ -11749,33 +12106,33 @@
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>15</v>
       </c>
@@ -11786,7 +12143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>47</v>
       </c>
@@ -11797,7 +12154,7 @@
         <v>0.723367198838897</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
         <v>48</v>
       </c>
@@ -11808,7 +12165,7 @@
         <v>0.20621190130624092</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>49</v>
       </c>
@@ -11832,26 +12189,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A4:I61"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -11859,12 +12216,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -11882,7 +12239,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
@@ -11900,7 +12257,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
@@ -11919,7 +12276,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
@@ -11939,7 +12296,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
@@ -11960,7 +12317,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
@@ -11982,13 +12339,13 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -12001,7 +12358,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -12009,7 +12366,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
@@ -12019,7 +12376,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>15</v>
       </c>
@@ -12045,7 +12402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>38</v>
       </c>
@@ -12078,7 +12435,7 @@
         <v>0.93377732943157821</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>39</v>
       </c>
@@ -12111,7 +12468,7 @@
         <v>1.2827999726481698</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>40</v>
       </c>
@@ -12144,7 +12501,7 @@
         <v>1.1407841221802952</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>32</v>
       </c>
@@ -12177,7 +12534,7 @@
         <v>0.88530582661946822</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -12196,12 +12553,12 @@
         <v>4.2426672508795118</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
         <v>19</v>
       </c>
@@ -12213,7 +12570,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
@@ -12224,7 +12581,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:9" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="23" t="s">
         <v>21</v>
       </c>
@@ -12240,34 +12597,34 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G46" s="4"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>15</v>
       </c>
@@ -12278,7 +12635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>38</v>
       </c>
@@ -12289,7 +12646,7 @@
         <v>0.60569340287453721</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>39</v>
       </c>
@@ -12300,7 +12657,7 @@
         <v>0.231831320358103</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>40</v>
       </c>
@@ -12311,7 +12668,7 @@
         <v>0.11039846343680276</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
         <v>32</v>
       </c>
@@ -12334,24 +12691,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A4:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -12359,12 +12716,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
@@ -12379,7 +12736,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
@@ -12394,7 +12751,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
@@ -12410,7 +12767,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
@@ -12427,7 +12784,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
@@ -12445,13 +12802,13 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -12460,7 +12817,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -12470,7 +12827,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -12479,7 +12836,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
@@ -12502,7 +12859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>50</v>
       </c>
@@ -12527,11 +12884,11 @@
         <v>0.70933806146572109</v>
       </c>
       <c r="H29" s="14">
-        <f>Table111416182224[[#This Row],[PRIORITAS]]*C22</f>
-        <v>0.98962185337557718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <f>(Table11141618222428[[#This Row],[PRIORITAS]]*C22)</f>
+        <v>0.95253968253968258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>51</v>
       </c>
@@ -12555,12 +12912,12 @@
         <f>Table11141618222428[[#This Row],[JUMLAH]]/3</f>
         <v>0.21408983451536642</v>
       </c>
-      <c r="H30" s="17">
-        <f>Table111416182224[[#This Row],[PRIORITAS]]*D22</f>
-        <v>1.1642461105594173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="14">
+        <f>(Table11141618222428[[#This Row],[PRIORITAS]]*D22)</f>
+        <v>1.3380614657210401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>52</v>
       </c>
@@ -12585,11 +12942,11 @@
         <v>7.6572104018912526E-2</v>
       </c>
       <c r="H31" s="14">
-        <f>Table111416182224[[#This Row],[PRIORITAS]]*E22</f>
-        <v>0.92121813968884481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <f>(Table11141618222428[[#This Row],[PRIORITAS]]*E22)</f>
+        <v>0.91886524822695037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -12604,26 +12961,26 @@
       </c>
       <c r="H32" s="14">
         <f>SUM(H29:H31)</f>
-        <v>3.0750861036238391</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+        <v>3.2094663964876728</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="19">
         <f>(H32-3)/(3-1)</f>
-        <v>3.7543051811919526E-2</v>
+        <v>0.10473319824383642</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
         <v>20</v>
       </c>
@@ -12633,48 +12990,48 @@
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="24">
         <f>C34/C35</f>
-        <v>6.4729399675723318E-2</v>
+        <v>0.18057447973075247</v>
       </c>
       <c r="D36" s="7" t="str">
         <f>IF(C36&lt;=0.1, "KONSISTEN", "TIDAK KONSISTEN")</f>
-        <v>KONSISTEN</v>
+        <v>TIDAK KONSISTEN</v>
       </c>
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G45" s="4"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>15</v>
       </c>
@@ -12685,7 +13042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>50</v>
       </c>
@@ -12696,7 +13053,7 @@
         <v>0.74816441364166619</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>51</v>
       </c>
@@ -12707,7 +13064,7 @@
         <v>0.18040211349756399</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>52</v>
       </c>
@@ -12730,29 +13087,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A5:M71"/>
   <sheetViews>
     <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" customWidth="1"/>
-    <col min="12" max="13" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="12" max="13" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -12760,12 +13117,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
@@ -12795,7 +13152,7 @@
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>54</v>
       </c>
@@ -12826,7 +13183,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
@@ -12858,7 +13215,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
@@ -12891,7 +13248,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
@@ -12925,7 +13282,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
@@ -12960,7 +13317,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
@@ -12996,7 +13353,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
@@ -13033,7 +13390,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
@@ -13071,7 +13428,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>14</v>
       </c>
@@ -13110,7 +13467,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -13123,7 +13480,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -13136,19 +13493,19 @@
       <c r="K30" s="6"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I31" s="26"/>
       <c r="J31" s="26"/>
       <c r="K31" s="6"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I32" s="26"/>
       <c r="J32" s="26"/>
       <c r="K32" s="6"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>23</v>
       </c>
@@ -13166,7 +13523,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -13179,7 +13536,7 @@
       <c r="K34" s="6"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>22</v>
       </c>
@@ -13192,7 +13549,7 @@
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
@@ -13230,7 +13587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
@@ -13279,7 +13636,7 @@
         <v>0.84267337314468493</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
@@ -13328,7 +13685,7 @@
         <v>1.0267564412262693</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>62</v>
       </c>
@@ -13377,7 +13734,7 @@
         <v>1.2852573938706635</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>107</v>
       </c>
@@ -13426,7 +13783,7 @@
         <v>1.538907973995211</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>58</v>
       </c>
@@ -13475,7 +13832,7 @@
         <v>1.3335716435746872</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
@@ -13524,7 +13881,7 @@
         <v>1.0685569762753238</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
@@ -13573,7 +13930,7 @@
         <v>0.98376366287895389</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>57</v>
       </c>
@@ -13622,7 +13979,7 @@
         <v>0.87116341867213376</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="27" t="s">
         <v>14</v>
       </c>
@@ -13665,7 +14022,7 @@
         <v>8.9506508836379268</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>19</v>
       </c>
@@ -13674,7 +14031,7 @@
         <v>0.13580726909113242</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>20</v>
       </c>
@@ -13682,7 +14039,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="18" t="s">
         <v>21</v>
       </c>
@@ -13695,8 +14052,8 @@
         <v>KONSISTEN</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="57" t="s">
         <v>15</v>
       </c>
@@ -13707,7 +14064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>54</v>
       </c>
@@ -13718,7 +14075,7 @@
         <v>0.32780748692877526</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
@@ -13729,7 +14086,7 @@
         <v>0.23492157543945874</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>62</v>
       </c>
@@ -13740,7 +14097,7 @@
         <v>0.15594629652626857</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
         <v>107</v>
       </c>
@@ -13751,7 +14108,7 @@
         <v>0.1186709536542713</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>58</v>
       </c>
@@ -13762,7 +14119,7 @@
         <v>7.4640203931419055E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
         <v>61</v>
       </c>
@@ -13773,7 +14130,7 @@
         <v>4.1363495855818985E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>56</v>
       </c>
@@ -13784,7 +14141,7 @@
         <v>2.7711652475463491E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>57</v>
       </c>
